--- a/data/state_election_results/michigan_president.xlsx
+++ b/data/state_election_results/michigan_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5FEA7D-0C54-8246-97B7-BC7BE9763803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F718F255-3D58-9D43-88E0-DD268C57B73F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17780" yWindow="500" windowWidth="14160" windowHeight="19140" xr2:uid="{79F5FDB5-3601-BF45-B45C-AA4CAB8C3447}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>biden.votes</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>Wexford</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -348,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,32 +665,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F59634-C786-B142-80B0-A8D8134AE3E3}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A84"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>2142</v>
@@ -707,7 +705,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>2053</v>
@@ -724,7 +722,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>24449</v>
@@ -741,7 +739,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>6000</v>
@@ -758,7 +756,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>5960</v>
@@ -775,7 +773,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>2774</v>
@@ -792,7 +790,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>1478</v>
@@ -809,7 +807,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>11804</v>
@@ -826,7 +824,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>26653</v>
@@ -843,7 +841,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>5480</v>
@@ -860,7 +858,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>37438</v>
@@ -877,7 +875,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>6159</v>
@@ -894,7 +892,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>28876</v>
@@ -911,7 +909,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>9130</v>
@@ -928,7 +926,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>6939</v>
@@ -945,7 +943,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>5437</v>
@@ -962,7 +960,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>6651</v>
@@ -979,7 +977,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>5199</v>
@@ -996,7 +994,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>21968</v>
@@ -1013,7 +1011,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>2672</v>
@@ -1030,7 +1028,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>7606</v>
@@ -1047,7 +1045,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>4744</v>
@@ -1064,7 +1062,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>31299</v>
@@ -1081,7 +1079,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <v>9662</v>
@@ -1098,7 +1096,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
         <v>120082</v>
@@ -1115,7 +1113,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2">
         <v>4524</v>
@@ -1132,7 +1130,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
         <v>3573</v>
@@ -1149,7 +1147,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2">
         <v>28683</v>
@@ -1166,7 +1164,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2">
         <v>6693</v>
@@ -1183,7 +1181,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2">
         <v>5883</v>
@@ -1200,7 +1198,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2">
         <v>7750</v>
@@ -1217,7 +1215,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2">
         <v>5490</v>
@@ -1234,7 +1232,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2">
         <v>94221</v>
@@ -1251,7 +1249,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
         <v>10901</v>
@@ -1268,7 +1266,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2">
         <v>5373</v>
@@ -1285,7 +1283,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2">
         <v>2493</v>
@@ -1302,7 +1300,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
         <v>14072</v>
@@ -1319,7 +1317,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2">
         <v>32004</v>
@@ -1336,7 +1334,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2">
         <v>83686</v>
@@ -1353,7 +1351,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2">
         <v>3002</v>
@@ -1370,7 +1368,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2">
         <v>187915</v>
@@ -1387,7 +1385,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>672</v>
@@ -1404,7 +1402,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2">
         <v>2288</v>
@@ -1421,7 +1419,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2">
         <v>16367</v>
@@ -1438,7 +1436,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2">
         <v>8795</v>
@@ -1455,7 +1453,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2">
         <v>20918</v>
@@ -1472,7 +1470,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2">
         <v>48220</v>
@@ -1489,7 +1487,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>842</v>
@@ -1506,7 +1504,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2">
         <v>2632</v>
@@ -1523,7 +1521,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2">
         <v>225561</v>
@@ -1540,7 +1538,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2">
         <v>6107</v>
@@ -1557,7 +1555,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2">
         <v>20465</v>
@@ -1574,7 +1572,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2">
         <v>6802</v>
@@ -1591,7 +1589,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2">
         <v>7375</v>
@@ -1608,7 +1606,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="2">
         <v>4316</v>
@@ -1625,7 +1623,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="2">
         <v>20493</v>
@@ -1642,7 +1640,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="2">
         <v>1967</v>
@@ -1659,7 +1657,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="2">
         <v>32975</v>
@@ -1676,7 +1674,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="2">
         <v>9703</v>
@@ -1693,7 +1691,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="2">
         <v>1628</v>
@@ -1710,7 +1708,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2">
         <v>45643</v>
@@ -1727,7 +1725,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="2">
         <v>7874</v>
@@ -1744,7 +1742,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" s="2">
         <v>434148</v>
@@ -1761,7 +1759,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="2">
         <v>4944</v>
@@ -1778,7 +1776,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="2">
         <v>3475</v>
@@ -1795,7 +1793,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="2">
         <v>1391</v>
@@ -1812,7 +1810,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2">
         <v>3214</v>
@@ -1829,7 +1827,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="2">
         <v>1342</v>
@@ -1846,7 +1844,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" s="2">
         <v>4743</v>
@@ -1863,7 +1861,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="2">
         <v>64705</v>
@@ -1880,7 +1878,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2">
         <v>2911</v>
@@ -1897,7 +1895,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="2">
         <v>5166</v>
@@ -1914,7 +1912,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2">
         <v>51088</v>
@@ -1931,7 +1929,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2">
         <v>31363</v>
@@ -1948,7 +1946,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2">
         <v>9262</v>
@@ -1965,7 +1963,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2">
         <v>5966</v>
@@ -1982,7 +1980,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="2">
         <v>1589</v>
@@ -1999,7 +1997,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2">
         <v>15371</v>
@@ -2016,7 +2014,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" s="2">
         <v>8713</v>
@@ -2033,7 +2031,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" s="2">
         <v>16803</v>
@@ -2050,7 +2048,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2">
         <v>157136</v>
@@ -2067,7 +2065,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" s="2">
         <v>597170</v>
@@ -2084,7 +2082,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2">
         <v>5838</v>
